--- a/result/alpaka.xlsx
+++ b/result/alpaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>561</v>
+        <v>323</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>677</v>
+        <v>603</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>537</v>
+        <v>342</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>405</v>
+        <v>544</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>674</v>
+        <v>495</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>697</v>
+        <v>412</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>325</v>
+        <v>535</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>652</v>
+        <v>477</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>574</v>
+        <v>361</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>661</v>
+        <v>351</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 0.4кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>551</v>
+        <v>478</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 0.4кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 2шт</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>379</v>
+        <v>607</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 0.4кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 3шт</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 1.5кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР Курица Рис 15кг 1шт</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>700</v>
+        <v>366</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 1.5кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>549</v>
+        <v>358</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 1.5кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 3кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Курица Рис 15кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 1шт</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 2шт</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 1.5кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 3шт</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>576</v>
+        <v>466</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 3кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>562</v>
+        <v>455</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 3кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 3кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Лосось Рис SENS 10кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 15кг 1шт</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Инд Рис HAIR 1.5кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Инд Рис HAIR 1.5кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР Инд Рис HAIR 1.5кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>692</v>
+        <v>398</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 1шт</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>322</v>
+        <v>623</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 2шт</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>415</v>
+        <v>528</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Курица Рис 1.5кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 3шт</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>305</v>
+        <v>566</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Urinary 8кг 1шт</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Antistress 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
@@ -1727,12 +1727,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 0.4кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Antistress 7.5кг 2шт</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 1шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 2шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 1.5кг 3шт</t>
+          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Индейка 15кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 1шт</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>627</v>
+        <v>494</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 2шт</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 3шт</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>684</v>
+        <v>433</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 3кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>660</v>
+        <v>444</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТДЗ Лосось 3кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>709</v>
+        <v>384</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>532</v>
+        <v>356</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР Лабрадор 11.5кг 1шт</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>346</v>
+        <v>518</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР Немецкая Овчарка 12кг 1шт</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>666</v>
+        <v>325</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 2шт</t>
+          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 1шт</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>601</v>
+        <v>521</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР СТЗД Инд Ячм HAIR 3кг 3шт</t>
+          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 2шт</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>657</v>
+        <v>533</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Urinary 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 3шт</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>606</v>
+        <v>402</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Urinary 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>593</v>
+        <v>355</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Urinary 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Urinary 8кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Antistress 7.5кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>437</v>
+        <v>576</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Antistress 7.5кг 2шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 2шт</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 3шт</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК MINI Курица Рис 7кг 1шт</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>АЛПК ADV КОТ ВЗР VetDiet Weight 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК MINI Курица Рис 7кг 2шт</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>678</v>
+        <v>346</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 0.7кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>687</v>
+        <v>611</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 2шт</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 3шт</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 1шт</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 2шт</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>696</v>
+        <v>539</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetDiet Diets 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 3шт</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>462</v>
+        <v>303</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР Лабрадор 11.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>584</v>
+        <v>330</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР Немецкая Овчарка 12кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>302</v>
+        <v>558</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 2шт</t>
+          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВЗР Mother&amp;Puppy 3кг 3шт</t>
+          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 2шт</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>596</v>
+        <v>406</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 3шт</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>327</v>
+        <v>464</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 2шт</t>
+          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>478</v>
+        <v>401</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 0.8кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР КР Курица Рис 18кг 1шт</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>670</v>
+        <v>417</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>588</v>
+        <v>419</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 1шт</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>638</v>
+        <v>365</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 2шт</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>695</v>
+        <v>450</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 3шт</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>641</v>
+        <v>435</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ МЕЛК Курица Рис 3кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diabetes 12кг 1шт</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК MINI Курица Рис 7кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 1шт</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>624</v>
+        <v>501</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК MINI Курица Рис 7кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 2шт</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 3шт</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 1шт</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.8кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 2шт</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>585</v>
+        <v>353</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 3шт</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 1шт</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 3кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 2шт</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>360</v>
+        <v>499</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 3шт</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>680</v>
+        <v>344</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 12кг 1шт</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК Курица Рис Light 3кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>430</v>
+        <v>608</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>476</v>
+        <v>334</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 2шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг 3шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>690</v>
+        <v>485</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 1шт</t>
+          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 7.5кг 2шт</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>679</v>
+        <v>431</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>580</v>
+        <v>514</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ СР Курица Рис 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР СР Курица Рис 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР СР Курица Рис 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>408</v>
+        <v>592</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР СР Курица Рис 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР КР Курица Рис 18кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 0.8кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>581</v>
+        <v>308</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 0.8кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 0.8кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>422</v>
+        <v>610</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>403</v>
+        <v>569</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>628</v>
+        <v>449</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>711</v>
+        <v>383</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК SENS Лосось Рис 7.5кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК SENS Лосось Рис 7.5кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>682</v>
+        <v>597</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Ягненок Рис 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>703</v>
+        <v>451</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Ягненок Рис 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Ягненок Рис 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ SENS Ягненок Рис 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>466</v>
+        <v>564</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Gastro 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>404</v>
+        <v>593</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diabetes 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>683</v>
+        <v>312</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Diets 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 1шт</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВСЕ ВСЕ VetDiet Hypo 2.5кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 2шт</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВСЕ ВСЕ VetDiet Hypo 2.5кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 3шт</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВСЕ ВСЕ VetDiet Hypo 2.5кг 3шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>540</v>
+        <v>335</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>675</v>
+        <v>310</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetDiet Articular 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>568</v>
+        <v>441</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Форель 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Форель 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Форель 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 1шт</t>
+          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>701</v>
+        <v>491</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 2шт</t>
+          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>706</v>
+        <v>363</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР ВСЕ VetD Atopic Кролик 12кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>635</v>
+        <v>319</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>605</v>
+        <v>530</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>323</v>
+        <v>428</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 1.5кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 7.5кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>АЛПК ADV СОБ ВЗР МЕЛК VetD Atopic Форель 7.5кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 10кг 1шт</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 1шт</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 2шт</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Цыпленок 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 3шт</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 1шт</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 2шт</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>352</v>
+        <v>507</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 3шт</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>401</v>
+        <v>582</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>592</v>
+        <v>399</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>648</v>
+        <v>469</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>594</v>
+        <v>338</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
@@ -4477,12 +4477,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
@@ -4543,12 +4543,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>619</v>
+        <v>386</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>669</v>
+        <v>322</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
@@ -4675,12 +4675,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 1шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 1шт</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>704</v>
+        <v>397</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 2шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 2шт</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>667</v>
+        <v>581</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 0.3кг 3шт</t>
+          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 3шт</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>656</v>
+        <v>440</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР Курица Рис 150г-12</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР Говядина Рис 150г-12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР Ветчина Рис 150г-12</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>634</v>
+        <v>586</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ПОЖ Ветчина Рис 150г-12</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>314</v>
+        <v>614</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР SENS Ягн Рис 150г-12</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 0.3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР SENS Форель 150г-12</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>639</v>
+        <v>541</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 0.3кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 0.3кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 0.3кг 3шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>710</v>
+        <v>328</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>340</v>
+        <v>631</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Индейка 0.3кг 3шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>396</v>
+        <v>621</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
@@ -5049,12 +5049,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Курица 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>425</v>
+        <v>574</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ Лосось 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>335</v>
+        <v>490</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>432</v>
+        <v>301</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ МОЛ 7-12м Курица 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>306</v>
+        <v>560</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
@@ -5225,12 +5225,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Говядина 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>643</v>
+        <v>349</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 10кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>499</v>
+        <v>357</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>565</v>
+        <v>315</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
@@ -5445,12 +5445,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Курица 3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>391</v>
+        <v>626</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
@@ -5533,12 +5533,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР URIN Курица 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="n">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 2шт</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
-        <v>647</v>
+        <v>546</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 3шт</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>535</v>
+        <v>306</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Рыба 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Белое Мясо 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 2шт</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>658</v>
+        <v>459</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Белое Мясо 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 3шт</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="n">
-        <v>375</v>
+        <v>511</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
@@ -5665,12 +5665,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР EXIG Белое Мясо 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 1шт</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="n">
-        <v>626</v>
+        <v>304</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 2шт</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 3шт</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 1шт</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="n">
-        <v>665</v>
+        <v>516</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 2шт</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="n">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 3шт</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР GF SENS Утка 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 1шт</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 2шт</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>409</v>
+        <v>624</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 3шт</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
@@ -5863,12 +5863,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 1шт</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
-        <v>705</v>
+        <v>447</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 2шт</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 3шт</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -5929,12 +5929,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 1шт</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 2шт</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 3шт</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="n">
-        <v>686</v>
+        <v>329</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 1шт</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>558</v>
+        <v>370</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 2шт</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="n">
-        <v>698</v>
+        <v>314</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 3шт</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="n">
-        <v>361</v>
+        <v>550</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР HAIR Курица 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 1шт</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="n">
-        <v>329</v>
+        <v>522</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 2шт</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="n">
-        <v>548</v>
+        <v>388</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
@@ -6105,12 +6105,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 3шт</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
-        <v>557</v>
+        <v>443</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 1шт</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
@@ -6149,12 +6149,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 3кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 2шт</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="n">
-        <v>623</v>
+        <v>475</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
@@ -6171,12 +6171,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 3кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 3шт</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="n">
-        <v>646</v>
+        <v>302</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 3кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 1шт</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="n">
-        <v>313</v>
+        <v>502</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
@@ -6215,12 +6215,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР Тунец 10кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 2шт</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Лосось 10кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 3шт</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="n">
-        <v>349</v>
+        <v>609</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 10кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 1шт</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="n">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
@@ -6281,12 +6281,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>АЛПК TRNR КОТ ВЗР СТЗД Ветчина 10кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 2шт</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ Курица Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 3шт</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="n">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР Курица Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 1шт</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="n">
-        <v>671</v>
+        <v>339</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
@@ -6347,12 +6347,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР Говядина Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 2шт</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="n">
-        <v>377</v>
+        <v>587</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР Ветчина Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 3шт</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="n">
-        <v>475</v>
+        <v>591</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
@@ -6391,12 +6391,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ПОЖ Ветчина Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 1шт</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="n">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР SENS Ягн Рис 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 2шт</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="n">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР SENS Форель 150г-12</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 3шт</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="n">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР SENS Свинина 150г-12</t>
+          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 1шт</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="n">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 2шт</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="n">
-        <v>515</v>
+        <v>364</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
@@ -6501,12 +6501,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 3шт</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="n">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 1шт</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="n">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 2шт</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="n">
-        <v>426</v>
+        <v>559</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
@@ -6567,12 +6567,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 3шт</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="n">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
@@ -6589,12 +6589,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 1шт</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="n">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 2шт</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="n">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
@@ -6633,12 +6633,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 3шт</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="n">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 1шт</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="n">
-        <v>308</v>
+        <v>517</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 2шт</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 3шт</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="n">
-        <v>513</v>
+        <v>394</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 1шт</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="n">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 2шт</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="n">
-        <v>469</v>
+        <v>385</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 3шт</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 1шт</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
-        <v>685</v>
+        <v>461</v>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 2шт</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
-        <v>699</v>
+        <v>579</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 3шт</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="n">
-        <v>449</v>
+        <v>371</v>
       </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
@@ -6853,12 +6853,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 1шт</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="n">
-        <v>653</v>
+        <v>448</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
@@ -6875,12 +6875,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 2шт</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="n">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 3шт</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="n">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 1шт</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
@@ -6941,12 +6941,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 2шт</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="n">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 3шт</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="n">
-        <v>621</v>
+        <v>311</v>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 1шт</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
-        <v>546</v>
+        <v>332</v>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
@@ -7007,12 +7007,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 2шт</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 3шт</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="n">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
@@ -7051,12 +7051,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 1шт</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
-        <v>654</v>
+        <v>504</v>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 2шт</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="n">
-        <v>472</v>
+        <v>336</v>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 3шт</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>388</v>
+        <v>537</v>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
@@ -7117,12 +7117,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 1шт</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
-        <v>673</v>
+        <v>327</v>
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
@@ -7139,12 +7139,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 2шт</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="n">
-        <v>514</v>
+        <v>432</v>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 3шт</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 0.8кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 1шт</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="n">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
@@ -7205,12 +7205,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 2шт</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>447</v>
+        <v>321</v>
       </c>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
@@ -7227,12 +7227,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 3шт</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="n">
-        <v>445</v>
+        <v>596</v>
       </c>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица Дрожж 1.5кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 7кг 1шт</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="n">
-        <v>651</v>
+        <v>568</v>
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 7кг 2шт</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="n">
-        <v>640</v>
+        <v>375</v>
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 7кг 1шт</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
@@ -7315,12 +7315,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК Курица 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 7кг 2шт</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>662</v>
+        <v>442</v>
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 7кг 1шт</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 7кг 2шт</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>672</v>
+        <v>425</v>
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
@@ -7381,12 +7381,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ МОЛ МЕЛК NG Лосось 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 7кг 1шт</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
-        <v>587</v>
+        <v>305</v>
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 7кг 2шт</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
-        <v>688</v>
+        <v>602</v>
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Свинина Юкк 7кг 1шт</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
@@ -7447,12 +7447,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Свинина Юкк 7кг 2шт</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
@@ -7469,12 +7469,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ СР Курица 12кг 1шт</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>694</v>
+        <v>476</v>
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ МОЛ СР NG Лосось 12кг 1шт</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
-        <v>523</v>
+        <v>367</v>
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
@@ -7513,12 +7513,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ МОЛ КР Курица 8мес 12кг 1шт</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
@@ -7535,12 +7535,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ МОЛ КР Курица 8-24 мес 12кг 1шт</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
-        <v>543</v>
+        <v>393</v>
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
@@ -7557,12 +7557,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 12кг 1шт</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
-        <v>702</v>
+        <v>622</v>
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 12кг 1шт</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="n">
-        <v>650</v>
+        <v>407</v>
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
@@ -7601,12 +7601,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 12кг 1шт</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 12кг 1шт</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
-        <v>691</v>
+        <v>595</v>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Тун Юкка Спир 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 12кг 1шт</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 12кг 1шт</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
@@ -7689,12 +7689,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 12кг 1шт</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
-        <v>367</v>
+        <v>540</v>
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
@@ -7711,12 +7711,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Яйцо 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 12кг 1шт</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>707</v>
+        <v>421</v>
       </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
@@ -7733,12 +7733,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 1шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 12кг 1шт</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
-        <v>448</v>
+        <v>548</v>
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
@@ -7755,12 +7755,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 2шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 12кг 1шт</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
@@ -7777,1775 +7777,15 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг 3шт</t>
+          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 12кг 1шт</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="n">
-        <v>427</v>
-      </c>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="n">
-        <v>544</v>
-      </c>
-      <c r="E336" t="inlineStr"/>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="n">
-        <v>708</v>
-      </c>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="n">
-        <v>577</v>
-      </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="n">
-        <v>354</v>
-      </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="n">
-        <v>373</v>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="n">
-        <v>467</v>
-      </c>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="n">
-        <v>676</v>
-      </c>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Утка 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="n">
-        <v>320</v>
-      </c>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="n">
-        <v>500</v>
-      </c>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="n">
-        <v>309</v>
-      </c>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="n">
-        <v>393</v>
-      </c>
-      <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="n">
-        <v>642</v>
-      </c>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="n">
-        <v>454</v>
-      </c>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="n">
-        <v>597</v>
-      </c>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="n">
-        <v>633</v>
-      </c>
-      <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="n">
-        <v>423</v>
-      </c>
-      <c r="E351" t="inlineStr"/>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ СР Курица 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="n">
-        <v>567</v>
-      </c>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="n">
-        <v>457</v>
-      </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="n">
-        <v>357</v>
-      </c>
-      <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="n">
-        <v>554</v>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="n">
-        <v>625</v>
-      </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="n">
-        <v>471</v>
-      </c>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="n">
-        <v>689</v>
-      </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="n">
-        <v>424</v>
-      </c>
-      <c r="E359" t="inlineStr"/>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="n">
-        <v>410</v>
-      </c>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="n">
-        <v>516</v>
-      </c>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="n">
-        <v>326</v>
-      </c>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="n">
-        <v>345</v>
-      </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="n">
-        <v>547</v>
-      </c>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="n">
-        <v>487</v>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="n">
-        <v>332</v>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="n">
-        <v>315</v>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="n">
-        <v>376</v>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="n">
-        <v>552</v>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="n">
-        <v>553</v>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="n">
-        <v>342</v>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="n">
-        <v>610</v>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="n">
-        <v>464</v>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="n">
-        <v>473</v>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="n">
-        <v>436</v>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="n">
-        <v>536</v>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="n">
-        <v>629</v>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="n">
-        <v>481</v>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="n">
-        <v>524</v>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="n">
-        <v>595</v>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="n">
-        <v>555</v>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="n">
-        <v>433</v>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="n">
-        <v>311</v>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="n">
-        <v>668</v>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="n">
-        <v>406</v>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="n">
-        <v>366</v>
-      </c>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Курица Рис Юкк 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="n">
-        <v>336</v>
-      </c>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="n">
-        <v>541</v>
-      </c>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="n">
-        <v>503</v>
-      </c>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="n">
-        <v>400</v>
-      </c>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Ветч Рис Юкк 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="n">
-        <v>579</v>
-      </c>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="n">
-        <v>631</v>
-      </c>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК Light Индейка 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="n">
-        <v>477</v>
-      </c>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="n">
-        <v>622</v>
-      </c>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="n">
-        <v>563</v>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="n">
-        <v>511</v>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="n">
-        <v>559</v>
-      </c>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Свинина Юкк 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="n">
-        <v>498</v>
-      </c>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР МЕЛК GF Свинина Юкк 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="n">
-        <v>394</v>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ СР Курица 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="n">
-        <v>456</v>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ СР NG Лосось 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="n">
-        <v>316</v>
-      </c>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ КР Курица 8мес 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="n">
-        <v>381</v>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ МОЛ КР Курица 8-24 мес 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="n">
-        <v>693</v>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="n">
-        <v>569</v>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Ветчина Рис Мол 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="n">
-        <v>382</v>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Тунец Рис Водорос 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="n">
-        <v>659</v>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Гов Цик Спир 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="n">
-        <v>630</v>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Утка 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="n">
-        <v>339</v>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="n">
-        <v>611</v>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР Light Инд 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="n">
-        <v>664</v>
-      </c>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Яйцо 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="n">
-        <v>304</v>
-      </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Лосось 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="n">
-        <v>613</v>
-      </c>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР NG Кролик 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="n">
-        <v>599</v>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>АЛПК TRNR СОБ ВЗР СР КР GF Форель 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="n">
-        <v>303</v>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
